--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H2">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I2">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J2">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N2">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O2">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P2">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q2">
-        <v>3.985382297388556</v>
+        <v>1.186493655230556</v>
       </c>
       <c r="R2">
-        <v>35.868440676497</v>
+        <v>10.678442897075</v>
       </c>
       <c r="S2">
-        <v>0.01251034068761988</v>
+        <v>0.0225908527362831</v>
       </c>
       <c r="T2">
-        <v>0.01251034068761988</v>
+        <v>0.0225908527362831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H3">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I3">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J3">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O3">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P3">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q3">
-        <v>7.895336931067446</v>
+        <v>5.726156467580111</v>
       </c>
       <c r="R3">
-        <v>71.05803237960701</v>
+        <v>51.535408208221</v>
       </c>
       <c r="S3">
-        <v>0.02478390966806943</v>
+        <v>0.1090260844916872</v>
       </c>
       <c r="T3">
-        <v>0.02478390966806942</v>
+        <v>0.1090260844916872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H4">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I4">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J4">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N4">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O4">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P4">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q4">
-        <v>13.17179302764866</v>
+        <v>4.883552589596889</v>
       </c>
       <c r="R4">
-        <v>118.546137248838</v>
+        <v>43.951973306372</v>
       </c>
       <c r="S4">
-        <v>0.04134700411317538</v>
+        <v>0.09298289703878743</v>
       </c>
       <c r="T4">
-        <v>0.04134700411317537</v>
+        <v>0.09298289703878743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.168329</v>
       </c>
       <c r="I5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N5">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O5">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P5">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q5">
-        <v>5.076560036700778</v>
+        <v>2.083878608586112</v>
       </c>
       <c r="R5">
-        <v>45.689040330307</v>
+        <v>18.754907477275</v>
       </c>
       <c r="S5">
-        <v>0.01593560939483717</v>
+        <v>0.03967707248945348</v>
       </c>
       <c r="T5">
-        <v>0.01593560939483717</v>
+        <v>0.03967707248945348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.168329</v>
       </c>
       <c r="I6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O6">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P6">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q6">
         <v>10.05704069263522</v>
@@ -818,10 +818,10 @@
         <v>90.51336623371701</v>
       </c>
       <c r="S6">
-        <v>0.03156962017334337</v>
+        <v>0.1914861695623486</v>
       </c>
       <c r="T6">
-        <v>0.03156962017334337</v>
+        <v>0.1914861695623486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.168329</v>
       </c>
       <c r="I7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N7">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O7">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P7">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q7">
-        <v>16.77816407717533</v>
+        <v>8.577147235893777</v>
       </c>
       <c r="R7">
-        <v>151.003476694578</v>
+        <v>77.194325123044</v>
       </c>
       <c r="S7">
-        <v>0.05266760703378126</v>
+        <v>0.1633089812569138</v>
       </c>
       <c r="T7">
-        <v>0.05266760703378126</v>
+        <v>0.1633089812569138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H8">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I8">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J8">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.023694333333334</v>
+        <v>2.883158333333334</v>
       </c>
       <c r="N8">
-        <v>21.071083</v>
+        <v>8.649475000000001</v>
       </c>
       <c r="O8">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="P8">
-        <v>0.1590811435055747</v>
+        <v>0.1005826776766536</v>
       </c>
       <c r="Q8">
-        <v>41.6160678821189</v>
+        <v>2.012328229280556</v>
       </c>
       <c r="R8">
-        <v>374.5446109390701</v>
+        <v>18.110954063525</v>
       </c>
       <c r="S8">
-        <v>0.1306351934231177</v>
+        <v>0.03831475245091698</v>
       </c>
       <c r="T8">
-        <v>0.1306351934231177</v>
+        <v>0.03831475245091698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H9">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I9">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J9">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>41.74337300000001</v>
       </c>
       <c r="O9">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="P9">
-        <v>0.3151515045818828</v>
+        <v>0.4854237085598054</v>
       </c>
       <c r="Q9">
-        <v>82.44450673924113</v>
+        <v>9.711730234874114</v>
       </c>
       <c r="R9">
-        <v>742.0005606531702</v>
+        <v>87.40557211386702</v>
       </c>
       <c r="S9">
-        <v>0.2587979747404701</v>
+        <v>0.1849114545057696</v>
       </c>
       <c r="T9">
-        <v>0.25879797474047</v>
+        <v>0.1849114545057696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H10">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I10">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J10">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.213494</v>
+        <v>11.86694533333333</v>
       </c>
       <c r="N10">
-        <v>69.64048199999999</v>
+        <v>35.600836</v>
       </c>
       <c r="O10">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="P10">
-        <v>0.5257673519125424</v>
+        <v>0.413993613763541</v>
       </c>
       <c r="Q10">
-        <v>137.5421959210867</v>
+        <v>8.282649209204891</v>
       </c>
       <c r="R10">
-        <v>1237.87976328978</v>
+        <v>74.54384288284402</v>
       </c>
       <c r="S10">
-        <v>0.4317527407655858</v>
+        <v>0.1577017354678398</v>
       </c>
       <c r="T10">
-        <v>0.4317527407655857</v>
+        <v>0.1577017354678398</v>
       </c>
     </row>
   </sheetData>
